--- a/whales species data.xlsx
+++ b/whales species data.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/Baleen whales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E545FDC-C7AB-7042-ACBA-1CED5EB39966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE92575-31E1-BA46-A08E-7B890EC90BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{488574B7-0350-0544-8528-1FDDB31E2421}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28040" windowHeight="16040" activeTab="1" xr2:uid="{488574B7-0350-0544-8528-1FDDB31E2421}"/>
   </bookViews>
   <sheets>
     <sheet name="Baleen" sheetId="2" r:id="rId1"/>
     <sheet name="CS" sheetId="1" r:id="rId2"/>
     <sheet name="Proportion of pub species" sheetId="4" r:id="rId3"/>
     <sheet name="Number of publications for each" sheetId="3" r:id="rId4"/>
-    <sheet name="Jornals" sheetId="5" r:id="rId5"/>
+    <sheet name="Keywords" sheetId="6" r:id="rId5"/>
+    <sheet name="Jornals" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Baleen!$A$1:$O$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Jornals!$F$3:$F$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Jornals!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Jornals!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Jornals!$C$3:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="133">
   <si>
     <t>Balaenoptera musculus</t>
   </si>
@@ -319,39 +324,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>DISTRIBUTION </t>
-  </si>
-  <si>
-    <t>CONSERVATION </t>
-  </si>
-  <si>
-    <t>MIGRATION </t>
-  </si>
-  <si>
     <t>ARCTIC </t>
   </si>
   <si>
-    <t>PASSIVE ACOUSTIC MONITORING </t>
-  </si>
-  <si>
-    <t>CLIMATE CHANGE </t>
-  </si>
-  <si>
-    <t>ABUNDANCE </t>
-  </si>
-  <si>
-    <t>ABUNDANCE ESTIMATE </t>
-  </si>
-  <si>
-    <t>ENTANGLEMENT </t>
-  </si>
-  <si>
-    <t>WHALING </t>
-  </si>
-  <si>
-    <t>STABLE ISOTOPES </t>
-  </si>
-  <si>
     <t>Journals</t>
   </si>
   <si>
@@ -409,25 +384,67 @@
     <t>MOLECULAR ECOLOGY </t>
   </si>
   <si>
-    <t>FORAGING </t>
-  </si>
-  <si>
-    <t>POPULATION STRUCTURE </t>
-  </si>
-  <si>
-    <t>REPRODUCTION </t>
-  </si>
-  <si>
-    <t>ACOUSTICS </t>
-  </si>
-  <si>
-    <t>SEA ICE </t>
-  </si>
-  <si>
     <t>articles</t>
   </si>
   <si>
     <t>explanatory</t>
+  </si>
+  <si>
+    <t>1 DISTRIBUTION </t>
+  </si>
+  <si>
+    <t>3 MIGRATION </t>
+  </si>
+  <si>
+    <t>2 CONSERVATION </t>
+  </si>
+  <si>
+    <t>9 WHALING </t>
+  </si>
+  <si>
+    <t>6 ABUNDANCE </t>
+  </si>
+  <si>
+    <t>7 ABUNDANCE ESTIMATE </t>
+  </si>
+  <si>
+    <t>4 PASSIVE ACOUSTIC MONITORING </t>
+  </si>
+  <si>
+    <t>5 CLIMATE CHANGE </t>
+  </si>
+  <si>
+    <t>8 ENTANGLEMENT </t>
+  </si>
+  <si>
+    <t>10 STABLE ISOTOPES </t>
+  </si>
+  <si>
+    <t>2 MIGRATION </t>
+  </si>
+  <si>
+    <t>3 CONSERVATION </t>
+  </si>
+  <si>
+    <t>4 WHALING </t>
+  </si>
+  <si>
+    <t>5 ABUNDANCE </t>
+  </si>
+  <si>
+    <t>6 FORAGING </t>
+  </si>
+  <si>
+    <t>7 POPULATION STRUCTURE </t>
+  </si>
+  <si>
+    <t>8 REPRODUCTION </t>
+  </si>
+  <si>
+    <t>9 ACOUSTICS </t>
+  </si>
+  <si>
+    <t>10 SEA ICE </t>
   </si>
 </sst>
 </file>
@@ -519,12 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,6 +562,968 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="3200" baseline="0"/>
+              <a:t>Number of publications for each species</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="3200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5454594203811855E-2"/>
+          <c:y val="5.6687376229853793E-2"/>
+          <c:w val="0.95087515074465212"/>
+          <c:h val="0.72525562508426367"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>records 2000-2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE4-174D-8AB9-6991A7A9939F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>records 2010-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE4-174D-8AB9-6991A7A9939F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:axId val="256077071"/>
+        <c:axId val="296528047"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>growth rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="diamond"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2558139534883721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4538461538461538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4942528735632183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5494505494505493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1438848920863309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4716157205240177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3170731707317074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBE4-174D-8AB9-6991A7A9939F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276370815"/>
+        <c:axId val="276724463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="256077071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296528047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="296528047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256077071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="276724463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276370815"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="276370815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="276724463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77174098049540618"/>
+          <c:y val="6.4361689136515743E-2"/>
+          <c:w val="0.1652581523879561"/>
+          <c:h val="0.12646311821055611"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -799,32 +1778,6 @@
                   <c:y val="-2.4456526972040225E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -832,17 +1785,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-EB1E-C14F-BD51-CDA452C2F1D0}"/>
                 </c:ext>
@@ -858,34 +1801,16 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:fld id="{BA06FC23-F749-8C44-BD75-E58949EBFD07}" type="CATEGORYNAME">
                       <a:rPr lang="en-US">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:pPr>
-                        <a:defRPr sz="1600" b="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:defRPr>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
@@ -902,13 +1827,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:pPr>
-                        <a:defRPr sz="1600" b="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:defRPr>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US">
@@ -919,32 +1838,6 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -953,15 +1846,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1191,7 +2075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1660,7 +2544,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2282,7 +3166,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2539,6 +3423,2048 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Top 10 keywords 2000-2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7E5D-434F-B6C2-1EAEE827B34B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4066712077772697E-2"/>
+                  <c:y val="-1.970443349753696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1320085093013692"/>
+                  <c:y val="-1.3136288998357979E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7E5D-434F-B6C2-1EAEE827B34B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Keywords!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1 DISTRIBUTION </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 MIGRATION </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 CONSERVATION </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 WHALING </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 ABUNDANCE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 FORAGING </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 POPULATION STRUCTURE </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 REPRODUCTION </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9 ACOUSTICS </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 SEA ICE </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Keywords!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E5D-434F-B6C2-1EAEE827B34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 10 keywords </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2010-2019</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-61ED-1445-80DE-759FFE12D156}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-61ED-1445-80DE-759FFE12D156}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Keywords!$F$2:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1 DISTRIBUTION </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 MIGRATION </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CONSERVATION </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9 WHALING </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6 ABUNDANCE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7 ABUNDANCE ESTIMATE </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4 PASSIVE ACOUSTIC MONITORING </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 CLIMATE CHANGE </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8 ENTANGLEMENT </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 STABLE ISOTOPES </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Keywords!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61ED-1445-80DE-759FFE12D156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Top 10 source jounral 2000-2009</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Top 10 source jounral 2000-2009</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{B8A92966-E0AC-A243-9ED6-476986126C0E}">
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Top 10 source journal 2010-2019</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Top 10 source journal 2010-2019</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{EE8CEEBF-24F3-4D4F-9AF4-971D7D0F301B}">
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+            <cx:dataLabel idx="2">
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="1000"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>JOURNAL OF THE ACOUSTICAL SOCIETY OF AMERICA</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -2650,7 +5576,665 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3167,7 +6751,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3684,7 +7268,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4187,7 +7771,2110 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" cap="all"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" cap="all"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2167467</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF168CBA-F76B-EE4A-BD7D-302E55BB4C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4266,20 +9953,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>808182</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726246</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19243</xdr:rowOff>
+      <xdr:rowOff>183114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>577273</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495338</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>163872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4304,6 +9991,244 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1617133</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>182035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DD450E-DA77-CE4B-910B-A51768F55F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66579820-5ACC-704E-8193-3DC041328FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1014431</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>783951</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140798</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886B1236-5053-8C4A-8306-EF4FF060F5E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1839931" y="2688951"/>
+              <a:ext cx="5421020" cy="2735047"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230481</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15365</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA053CA-3895-DA4C-B57D-5AE15305D67B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8358481" y="2767345"/>
+              <a:ext cx="6727393" cy="2734420"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4608,8 +10533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE5A31C-1B9C-7140-9FE3-2F0B01AE4EBF}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="B14" zoomScale="67" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4644,10 +10569,10 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>68</v>
@@ -4659,7 +10584,7 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
         <v>46</v>
@@ -4681,7 +10606,7 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
@@ -4690,13 +10615,13 @@
       <c r="E2">
         <v>184</v>
       </c>
-      <c r="F2">
-        <f>D2+E2</f>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F15" si="0">E2/D2</f>
+        <v>1.6</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G15" si="1">D2+E2</f>
         <v>299</v>
-      </c>
-      <c r="G2" s="8">
-        <f>E2/D2</f>
-        <v>1.6</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(D2:D5)</f>
@@ -4731,7 +10656,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3">
@@ -4740,13 +10665,13 @@
       <c r="E3">
         <v>36</v>
       </c>
-      <c r="F3">
-        <f>D3+E3</f>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-      <c r="G3" s="8">
-        <f>E3/D3</f>
-        <v>2.5714285714285716</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -4773,7 +10698,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -4782,13 +10707,13 @@
       <c r="E4">
         <v>140</v>
       </c>
-      <c r="F4">
-        <f>D4+E4</f>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2558139534883721</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
         <v>183</v>
-      </c>
-      <c r="G4" s="8">
-        <f>E4/D4</f>
-        <v>3.2558139534883721</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -4814,7 +10739,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -4823,13 +10748,13 @@
       <c r="E5">
         <v>189</v>
       </c>
-      <c r="F5">
-        <f>D5+E5</f>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4538461538461538</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>319</v>
-      </c>
-      <c r="G5" s="8">
-        <f>E5/D5</f>
-        <v>1.4538461538461538</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -4868,13 +10793,13 @@
       <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6">
-        <f>D6+E6</f>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>28</v>
-      </c>
-      <c r="G6" s="8">
-        <f>E6/D6</f>
-        <v>6</v>
       </c>
       <c r="H6" s="6">
         <f>D6</f>
@@ -4920,13 +10845,13 @@
       <c r="E7">
         <v>130</v>
       </c>
-      <c r="F7">
-        <f>D7+E7</f>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4942528735632183</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>217</v>
-      </c>
-      <c r="G7" s="8">
-        <f>E7/D7</f>
-        <v>1.4942528735632183</v>
       </c>
       <c r="H7" s="6">
         <f>D7</f>
@@ -4973,13 +10898,13 @@
       <c r="E8">
         <v>232</v>
       </c>
-      <c r="F8">
-        <f>D8+E8</f>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5494505494505493</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
         <v>323</v>
-      </c>
-      <c r="G8" s="8">
-        <f>E8/D8</f>
-        <v>2.5494505494505493</v>
       </c>
       <c r="H8" s="6">
         <f>SUM(D8:D15)</f>
@@ -5022,13 +10947,13 @@
       <c r="E9">
         <v>298</v>
       </c>
-      <c r="F9">
-        <f>D9+E9</f>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1438848920863309</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>437</v>
-      </c>
-      <c r="G9" s="8">
-        <f>E9/D9</f>
-        <v>2.1438848920863309</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -5063,13 +10988,13 @@
       <c r="E10">
         <v>566</v>
       </c>
-      <c r="F10">
-        <f>D10+E10</f>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4716157205240177</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>795</v>
-      </c>
-      <c r="G10" s="8">
-        <f>E10/D10</f>
-        <v>2.4716157205240177</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -5104,13 +11029,13 @@
       <c r="E11">
         <v>14</v>
       </c>
-      <c r="F11">
-        <f>D11+E11</f>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>17</v>
-      </c>
-      <c r="G11" s="8">
-        <f>E11/D11</f>
-        <v>4.666666666666667</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
@@ -5145,13 +11070,13 @@
       <c r="E12">
         <v>71</v>
       </c>
-      <c r="F12">
-        <f>D12+E12</f>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6296296296296298</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>98</v>
-      </c>
-      <c r="G12" s="8">
-        <f>E12/D12</f>
-        <v>2.6296296296296298</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -5187,13 +11112,13 @@
       <c r="E13">
         <v>72</v>
       </c>
-      <c r="F13">
-        <f>D13+E13</f>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>102</v>
-      </c>
-      <c r="G13" s="8">
-        <f>E13/D13</f>
-        <v>2.4</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
@@ -5229,13 +11154,13 @@
       <c r="E14">
         <v>270</v>
       </c>
-      <c r="F14">
-        <f>D14+E14</f>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3170731707317074</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
         <v>475</v>
-      </c>
-      <c r="G14" s="8">
-        <f>E14/D14</f>
-        <v>1.3170731707317074</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -5271,13 +11196,13 @@
       <c r="E15">
         <v>60</v>
       </c>
-      <c r="F15">
-        <f>D15+E15</f>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>92</v>
-      </c>
-      <c r="G15" s="8">
-        <f>E15/D15</f>
-        <v>1.875</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -5326,6 +11251,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -5333,7 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA25FD9-AA31-5440-B37E-56CCF5B252E3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5546,7 +11472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA1CDC-4C2F-1F4C-A169-70A032E5F308}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="62" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -5558,11 +11484,254 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20759CEE-8178-AC48-A62E-8D0C06E36189}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="10">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="10">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="10">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="10">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="10">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="10">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="10">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="10">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="10">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80687BE6-4CDE-284D-B623-D4E7E984B583}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5573,39 +11742,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10">
         <v>129</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -5616,185 +11785,185 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="10">
         <v>59</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
-        <v>2</v>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G4">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="11">
-        <v>47</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="10">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G5">
-        <v>116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="11">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="11">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>78</v>
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10">
         <v>27</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
-        <v>6</v>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="10">
         <v>26</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>7</v>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="10">
         <v>26</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
-        <v>8</v>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="10">
         <v>25</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>82</v>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="10">
         <v>21</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <v>10</v>
       </c>
       <c r="F12" t="s">
@@ -5804,287 +11973,84 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="11">
-        <v>71</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="11">
-        <v>114</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="11">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="11">
-        <v>96</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="11">
-        <v>25</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="11">
-        <v>85</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>4</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="11">
-        <v>25</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>4</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="11">
-        <v>51</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>5</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="11">
-        <v>22</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
-        <v>5</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="11">
-        <v>50</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="11">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>6</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="11">
-        <v>46</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="11">
-        <v>17</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
-        <v>7</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="11">
-        <v>39</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>8</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="11">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>8</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="11">
-        <v>38</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="11">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>9</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="11">
-        <v>38</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="11">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11">
-        <v>10</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="11">
-        <v>37</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
         <v>84</v>
@@ -6092,7 +12058,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
         <v>85</v>
@@ -6100,7 +12066,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>86</v>
@@ -6108,7 +12074,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
@@ -6116,7 +12082,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>88</v>
@@ -6124,7 +12090,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
         <v>89</v>
@@ -6132,7 +12098,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
         <v>90</v>
@@ -6144,5 +12110,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>